--- a/47全國技能_北區/02 SoftwareDesign/Data/CO02/data.xlsx
+++ b/47全國技能_北區/02 SoftwareDesign/Data/CO02/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\技能競賽\04全國技能競賽\47屆分區賽\競賽試題\02 SoftwareDesign\Data\CO02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelly\Documents\Repository\SoftwareDesign\47全國技能_北區\02 SoftwareDesign\Data\CO02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="1545"/>
   </bookViews>
   <sheets>
     <sheet name="台北市自行車旅遊景點" sheetId="6" r:id="rId1"/>
@@ -5964,7 +5964,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6279,20 +6279,20 @@
   <dimension ref="A1:F197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="9.1796875" style="6"/>
-    <col min="3" max="3" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="72.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>185</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>173</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>175</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>176</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>177</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>179</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>180</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>181</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>182</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>183</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>184</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -10247,17 +10247,17 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1944</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -14517,7 +14517,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -14757,7 +14757,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -14837,7 +14837,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -14957,7 +14957,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -15037,7 +15037,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -15177,7 +15177,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -15477,7 +15477,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -15497,7 +15497,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -15517,7 +15517,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -15657,7 +15657,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -15677,7 +15677,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -15757,7 +15757,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -15997,7 +15997,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -16257,7 +16257,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -16297,7 +16297,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -16477,7 +16477,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -16517,7 +16517,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -16717,7 +16717,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -16757,7 +16757,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -16777,7 +16777,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -16817,7 +16817,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -16917,7 +16917,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -17037,7 +17037,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -17217,7 +17217,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -17317,7 +17317,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -17397,7 +17397,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -17437,7 +17437,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -17457,7 +17457,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -17477,7 +17477,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -17537,7 +17537,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -17616,17 +17616,17 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="3"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17646,7 +17646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -17666,7 +17666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -17726,7 +17726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -17926,7 +17926,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -17946,7 +17946,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -18066,7 +18066,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -18086,7 +18086,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -18126,7 +18126,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -18186,7 +18186,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -18246,7 +18246,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -18266,7 +18266,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -18446,7 +18446,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -18506,7 +18506,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -18586,7 +18586,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -18626,7 +18626,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -18646,7 +18646,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -18666,7 +18666,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -18686,7 +18686,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -18706,7 +18706,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -18726,7 +18726,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -18786,7 +18786,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -18806,7 +18806,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -18846,7 +18846,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -18866,7 +18866,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -18906,7 +18906,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -18926,7 +18926,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -19026,7 +19026,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -19126,7 +19126,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -19266,7 +19266,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -19286,7 +19286,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -19306,7 +19306,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -19326,7 +19326,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -19446,7 +19446,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -19486,7 +19486,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -19546,7 +19546,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -19566,7 +19566,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -19586,7 +19586,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -19626,7 +19626,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -19646,7 +19646,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -19746,7 +19746,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -19806,7 +19806,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -19826,7 +19826,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -19966,7 +19966,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -20006,7 +20006,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -20026,7 +20026,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -20046,7 +20046,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -20066,7 +20066,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -20126,7 +20126,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -20166,7 +20166,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -20186,7 +20186,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -20206,7 +20206,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -20246,7 +20246,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -20306,7 +20306,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -20326,7 +20326,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -20346,7 +20346,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -20386,7 +20386,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -20406,7 +20406,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -20486,7 +20486,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -20506,7 +20506,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -20526,7 +20526,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -20546,7 +20546,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -20606,7 +20606,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -20646,7 +20646,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -20686,7 +20686,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -20726,7 +20726,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>155</v>
       </c>

--- a/47全國技能_北區/02 SoftwareDesign/Data/CO02/data.xlsx
+++ b/47全國技能_北區/02 SoftwareDesign/Data/CO02/data.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="1545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="1545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="台北市自行車旅遊景點" sheetId="6" r:id="rId1"/>
-    <sheet name="新北市自行車旅遊景點" sheetId="4" r:id="rId2"/>
-    <sheet name="高雄市自行車旅遊景點" sheetId="1" r:id="rId3"/>
+    <sheet name="Test" sheetId="7" r:id="rId2"/>
+    <sheet name="新北市自行車旅遊景點" sheetId="4" r:id="rId3"/>
+    <sheet name="高雄市自行車旅遊景點" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1946">
   <si>
     <t>代碼</t>
   </si>
@@ -6278,8 +6279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -10240,6 +10241,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D2" s="2">
+        <v>25.0408578889</v>
+      </c>
+      <c r="E2" s="2">
+        <v>121.56790444400001</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F367"/>
   <sheetViews>
@@ -17604,7 +17662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
